--- a/Database/sheet.xlsx
+++ b/Database/sheet.xlsx
@@ -1,58 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15255" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="2020" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
   <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Flat no</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>PAID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +61,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -370,91 +357,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>10</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -463,24 +410,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/sheet.xlsx
+++ b/Database/sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
   <si>
     <t>PAID</t>
   </si>
@@ -376,7 +376,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>

--- a/Database/sheet.xlsx
+++ b/Database/sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
   <si>
     <t>PAID</t>
   </si>
@@ -371,8 +371,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -381,6 +389,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>0</v>
       </c>
     </row>
